--- a/DataBase/EnterToDataBase_seminar/task_1.xlsx
+++ b/DataBase/EnterToDataBase_seminar/task_1.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="801" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="801" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Телефоны школы" sheetId="6" r:id="rId1"/>
     <sheet name="Данные по ученикам школы" sheetId="1" r:id="rId2"/>
     <sheet name="Данные о родственниках" sheetId="2" r:id="rId3"/>
-    <sheet name="Лист4" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Данные о родственниках'!$A$1:$G$1</definedName>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
   <si>
     <t>ФИО</t>
   </si>
@@ -213,9 +212,6 @@
   </si>
   <si>
     <t>Комментарий</t>
-  </si>
-  <si>
-    <t>Общая конструкция Базы данных школы</t>
   </si>
   <si>
     <t>вариант</t>
@@ -762,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -877,7 +873,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="F10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>33</v>
@@ -886,32 +882,32 @@
         <v>34</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="30">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="F16" t="s">
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -940,7 +936,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="F20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -948,34 +944,34 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="45">
-      <c r="A24" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30">
-      <c r="A28" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30">
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>6</v>
@@ -984,22 +980,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="30">
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1007,27 +1003,27 @@
         <v>26</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D39" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B41" s="3"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>6</v>
@@ -1035,32 +1031,32 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1080,7 +1076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1127,24 +1123,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>